--- a/Calificaciones/Notas-Corte 3.xlsx
+++ b/Calificaciones/Notas-Corte 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itceduco-my.sharepoint.com/personal/jfvillavisanb_itc_edu_co/Documents/A_Intro_Programacion/Intro_Programacion/Calificaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC5B1F1E-8F6D-4847-A5B3-F70FC73530DF}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB33BA3-BAAB-4568-86DE-A37475A6263F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
+    <workbookView xWindow="6975" yWindow="5310" windowWidth="20505" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>Lista de Alumnos por Grupo</t>
   </si>
@@ -65,6 +65,69 @@
   </si>
   <si>
     <t>6020 INTRODUCCION A LA PROGRAMACION</t>
+  </si>
+  <si>
+    <t>1007773229</t>
+  </si>
+  <si>
+    <t>1012466137</t>
+  </si>
+  <si>
+    <t>1052407199</t>
+  </si>
+  <si>
+    <t>1021667954</t>
+  </si>
+  <si>
+    <t>1000127994</t>
+  </si>
+  <si>
+    <t>1013103602</t>
+  </si>
+  <si>
+    <t>1025520348</t>
+  </si>
+  <si>
+    <t>1012333557</t>
+  </si>
+  <si>
+    <t>1000349460</t>
+  </si>
+  <si>
+    <t>1000706923</t>
+  </si>
+  <si>
+    <t>1030628956</t>
+  </si>
+  <si>
+    <t>1014188255</t>
+  </si>
+  <si>
+    <t>1010035905</t>
+  </si>
+  <si>
+    <t>1030638657</t>
+  </si>
+  <si>
+    <t>1077942318</t>
+  </si>
+  <si>
+    <t>1030585536</t>
+  </si>
+  <si>
+    <t>1013651844</t>
+  </si>
+  <si>
+    <t>1027401795</t>
+  </si>
+  <si>
+    <t>1070946553</t>
+  </si>
+  <si>
+    <t>1018493740</t>
+  </si>
+  <si>
+    <t>1003844557</t>
   </si>
 </sst>
 </file>
@@ -131,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +532,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -521,6 +585,9 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">+C5*0.8+D5*0.2</f>
         <v>0</v>
@@ -530,6 +597,9 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -538,6 +608,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -550,6 +623,9 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
@@ -561,6 +637,9 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
@@ -572,6 +651,9 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
@@ -583,6 +665,9 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
@@ -594,6 +679,9 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
@@ -605,6 +693,9 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
@@ -616,6 +707,9 @@
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -624,6 +718,9 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -636,6 +733,9 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
@@ -647,6 +747,9 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
@@ -658,6 +761,9 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
@@ -669,6 +775,9 @@
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -677,6 +786,9 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -689,6 +801,9 @@
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
@@ -700,6 +815,9 @@
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -708,6 +826,9 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -720,6 +841,9 @@
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
@@ -730,6 +854,9 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
